--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB4A2D-E147-479A-B0B0-37E82C0249D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17DE08C-73EE-4C76-B09B-E029A3386FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="420" windowWidth="10020" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="5" r:id="rId1"/>
@@ -926,14 +926,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,10 +944,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +987,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,43 +1007,10 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="33">
+      <c r="B2" s="61">
         <v>2022</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="61">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35" t="s">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="39">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="48">
         <v>44728</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="35" t="s">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="61">
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="49">
         <v>44728</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="59">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="38"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2233,7 +2233,9 @@
       <c r="U15" s="24">
         <v>0.8</v>
       </c>
-      <c r="V15" s="23"/>
+      <c r="V15" s="24">
+        <v>1</v>
+      </c>
       <c r="W15" s="23"/>
       <c r="X15" s="29"/>
       <c r="Y15" s="29"/>
@@ -2254,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2279,8 +2281,10 @@
       <c r="U16" s="23">
         <v>0.1</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="23"/>
+      <c r="V16" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="W16" s="27"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="23"/>
@@ -2302,14 +2306,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2350,14 +2354,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2376,7 +2380,7 @@
         <v>0.1</v>
       </c>
       <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="W18" s="27"/>
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
       <c r="Z18" s="27"/>
@@ -2398,14 +2402,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2423,7 +2427,9 @@
       <c r="U19" s="23">
         <v>0</v>
       </c>
-      <c r="V19" s="27"/>
+      <c r="V19" s="27">
+        <v>0.3</v>
+      </c>
       <c r="W19" s="27"/>
       <c r="X19" s="29"/>
       <c r="Y19" s="29"/>
@@ -2446,14 +2452,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2494,14 +2500,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2519,7 +2525,9 @@
       <c r="U21" s="23">
         <v>0.1</v>
       </c>
-      <c r="V21" s="27"/>
+      <c r="V21" s="27">
+        <v>0.4</v>
+      </c>
       <c r="W21" s="27"/>
       <c r="X21" s="29"/>
       <c r="Y21" s="29"/>
@@ -2542,14 +2550,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2590,14 +2598,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2638,14 +2646,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2663,7 +2671,9 @@
       <c r="U24" s="23">
         <v>0.1</v>
       </c>
-      <c r="V24" s="27"/>
+      <c r="V24" s="27">
+        <v>0.2</v>
+      </c>
       <c r="W24" s="27"/>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
@@ -2686,14 +2696,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2734,14 +2744,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2802,9 +2812,9 @@
         <f>AVERAGE(U16:U25)</f>
         <v>7.9999999999999988E-2</v>
       </c>
-      <c r="V26" s="23" t="e">
+      <c r="V26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="W26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -2874,13 +2884,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2920,13 +2930,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39868,12 +39878,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39885,23 +39905,13 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17DE08C-73EE-4C76-B09B-E029A3386FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970C037-299D-4E06-9FA7-BABD48F597BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="360" windowWidth="12990" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="5" r:id="rId1"/>
@@ -926,17 +926,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -944,31 +941,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,9 +962,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,11 +977,41 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:AN999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="61">
+      <c r="B2" s="33">
         <v>2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="33">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="47" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="47" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="48">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="39">
         <v>44728</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="47" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="49">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="40">
         <v>44728</v>
       </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="38"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="49">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="38"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2256,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2284,7 +2284,9 @@
       <c r="V16" s="27">
         <v>0.8</v>
       </c>
-      <c r="W16" s="27"/>
+      <c r="W16" s="27">
+        <v>0.9</v>
+      </c>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="23"/>
@@ -2306,14 +2308,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2332,7 +2334,9 @@
         <v>0.1</v>
       </c>
       <c r="V17" s="23"/>
-      <c r="W17" s="27"/>
+      <c r="W17" s="27">
+        <v>0.3</v>
+      </c>
       <c r="X17" s="29"/>
       <c r="Y17" s="29"/>
       <c r="Z17" s="23"/>
@@ -2354,14 +2358,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2380,7 +2384,9 @@
         <v>0.1</v>
       </c>
       <c r="V18" s="23"/>
-      <c r="W18" s="27"/>
+      <c r="W18" s="27">
+        <v>0.6</v>
+      </c>
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
       <c r="Z18" s="27"/>
@@ -2402,14 +2408,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2430,7 +2436,9 @@
       <c r="V19" s="27">
         <v>0.3</v>
       </c>
-      <c r="W19" s="27"/>
+      <c r="W19" s="27">
+        <v>0.85</v>
+      </c>
       <c r="X19" s="29"/>
       <c r="Y19" s="29"/>
       <c r="Z19" s="23"/>
@@ -2452,14 +2460,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2478,7 +2486,9 @@
         <v>0</v>
       </c>
       <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
+      <c r="W20" s="23">
+        <v>0</v>
+      </c>
       <c r="X20" s="29"/>
       <c r="Y20" s="29"/>
       <c r="Z20" s="27"/>
@@ -2500,14 +2510,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2528,7 +2538,9 @@
       <c r="V21" s="27">
         <v>0.4</v>
       </c>
-      <c r="W21" s="27"/>
+      <c r="W21" s="27">
+        <v>0.5</v>
+      </c>
       <c r="X21" s="29"/>
       <c r="Y21" s="29"/>
       <c r="Z21" s="27"/>
@@ -2550,14 +2562,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2576,7 +2588,9 @@
         <v>0.1</v>
       </c>
       <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
+      <c r="W22" s="27">
+        <v>0.6</v>
+      </c>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
       <c r="Z22" s="23"/>
@@ -2598,14 +2612,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2624,7 +2638,9 @@
         <v>0.1</v>
       </c>
       <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
+      <c r="W23" s="27">
+        <v>0.6</v>
+      </c>
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
       <c r="Z23" s="23"/>
@@ -2646,14 +2662,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2674,7 +2690,9 @@
       <c r="V24" s="27">
         <v>0.2</v>
       </c>
-      <c r="W24" s="27"/>
+      <c r="W24" s="27">
+        <v>0.3</v>
+      </c>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
       <c r="Z24" s="27"/>
@@ -2696,14 +2714,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2722,7 +2740,9 @@
         <v>0.1</v>
       </c>
       <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
+      <c r="W25" s="23">
+        <v>0</v>
+      </c>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
       <c r="Z25" s="23"/>
@@ -2744,14 +2764,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2816,9 +2836,9 @@
         <f t="shared" si="1"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="W26" s="23" t="e">
+      <c r="W26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="X26" s="29" t="e">
         <f t="shared" si="1"/>
@@ -2884,13 +2904,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2930,13 +2950,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39878,22 +39898,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39907,11 +39916,22 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970C037-299D-4E06-9FA7-BABD48F597BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72170DD2-09D8-41BF-B110-89F812438948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="360" windowWidth="12990" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="570" yWindow="360" windowWidth="12990" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="5" r:id="rId1"/>
@@ -926,14 +926,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,7 +935,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +989,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,41 +1007,11 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="33">
+      <c r="B2" s="61">
         <v>2022</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="61">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="39">
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="48">
         <v>44728</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="35" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="40">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="49">
         <v>44728</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="37"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="59">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="37"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2256,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2308,14 +2308,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2358,14 +2358,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2408,14 +2408,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2460,14 +2460,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2510,14 +2510,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2562,14 +2562,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2612,14 +2612,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2662,14 +2662,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2714,14 +2714,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2764,14 +2764,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2904,13 +2904,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2950,13 +2950,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39898,11 +39898,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39916,22 +39927,11 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72170DD2-09D8-41BF-B110-89F812438948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F21D8-060F-4CC1-9045-3B6C7ABBF05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="570" yWindow="360" windowWidth="12990" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="5" r:id="rId1"/>
@@ -926,8 +926,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -935,40 +941,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,9 +962,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,11 +977,41 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="61">
+      <c r="B2" s="33">
         <v>2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="33">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="47" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="47" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="48">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="39">
         <v>44728</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="47" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="49">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="40">
         <v>44728</v>
       </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="49">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2256,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2289,7 +2289,9 @@
       </c>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="23">
+        <v>0.98</v>
+      </c>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
@@ -2308,14 +2310,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2339,7 +2341,9 @@
       </c>
       <c r="X17" s="29"/>
       <c r="Y17" s="29"/>
-      <c r="Z17" s="23"/>
+      <c r="Z17" s="23">
+        <v>0.98</v>
+      </c>
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
@@ -2358,14 +2362,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2389,7 +2393,9 @@
       </c>
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
-      <c r="Z18" s="27"/>
+      <c r="Z18" s="27">
+        <v>0.5</v>
+      </c>
       <c r="AA18" s="27"/>
       <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
@@ -2408,14 +2414,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2441,7 +2447,9 @@
       </c>
       <c r="X19" s="29"/>
       <c r="Y19" s="29"/>
-      <c r="Z19" s="23"/>
+      <c r="Z19" s="23">
+        <v>1</v>
+      </c>
       <c r="AA19" s="23"/>
       <c r="AB19" s="23"/>
       <c r="AC19" s="23"/>
@@ -2460,14 +2468,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2491,7 +2499,9 @@
       </c>
       <c r="X20" s="29"/>
       <c r="Y20" s="29"/>
-      <c r="Z20" s="27"/>
+      <c r="Z20" s="27">
+        <v>0.7</v>
+      </c>
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
       <c r="AC20" s="27"/>
@@ -2510,14 +2520,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2543,7 +2553,9 @@
       </c>
       <c r="X21" s="29"/>
       <c r="Y21" s="29"/>
-      <c r="Z21" s="27"/>
+      <c r="Z21" s="27">
+        <v>0.6</v>
+      </c>
       <c r="AA21" s="27"/>
       <c r="AB21" s="23"/>
       <c r="AC21" s="23"/>
@@ -2562,14 +2574,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2593,7 +2605,9 @@
       </c>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
-      <c r="Z22" s="23"/>
+      <c r="Z22" s="23">
+        <v>0.65</v>
+      </c>
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
@@ -2612,14 +2626,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2643,7 +2657,9 @@
       </c>
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
-      <c r="Z23" s="23"/>
+      <c r="Z23" s="23">
+        <v>0.65</v>
+      </c>
       <c r="AA23" s="27"/>
       <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
@@ -2662,14 +2678,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2695,7 +2711,9 @@
       </c>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
-      <c r="Z24" s="27"/>
+      <c r="Z24" s="27">
+        <v>0.85</v>
+      </c>
       <c r="AA24" s="23"/>
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
@@ -2714,14 +2732,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2745,7 +2763,9 @@
       </c>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
-      <c r="Z25" s="23"/>
+      <c r="Z25" s="23">
+        <v>0</v>
+      </c>
       <c r="AA25" s="27"/>
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
@@ -2764,14 +2784,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2848,9 +2868,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z26" s="23" t="e">
+      <c r="Z26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.69100000000000006</v>
       </c>
       <c r="AA26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -2904,13 +2924,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2950,13 +2970,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39898,22 +39918,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39927,11 +39936,22 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F21D8-060F-4CC1-9045-3B6C7ABBF05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9594411-7CDA-448F-B655-BFC81BCB681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,14 +926,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,7 +935,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +989,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,41 +1007,11 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:AN999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="33">
+      <c r="B2" s="61">
         <v>2022</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="61">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="39">
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="48">
         <v>44728</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="35" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="40">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="49">
         <v>44728</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="37"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="59">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="37"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2256,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2292,7 +2292,9 @@
       <c r="Z16" s="23">
         <v>0.98</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="23">
+        <v>0.98</v>
+      </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
@@ -2310,14 +2312,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2344,7 +2346,9 @@
       <c r="Z17" s="23">
         <v>0.98</v>
       </c>
-      <c r="AA17" s="23"/>
+      <c r="AA17" s="23">
+        <v>0.98</v>
+      </c>
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="23"/>
@@ -2362,14 +2366,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2396,7 +2400,9 @@
       <c r="Z18" s="27">
         <v>0.5</v>
       </c>
-      <c r="AA18" s="27"/>
+      <c r="AA18" s="27">
+        <v>0.85</v>
+      </c>
       <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
@@ -2414,14 +2420,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2450,7 +2456,9 @@
       <c r="Z19" s="23">
         <v>1</v>
       </c>
-      <c r="AA19" s="23"/>
+      <c r="AA19" s="23">
+        <v>1</v>
+      </c>
       <c r="AB19" s="23"/>
       <c r="AC19" s="23"/>
       <c r="AD19" s="23"/>
@@ -2468,14 +2476,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2502,7 +2510,9 @@
       <c r="Z20" s="27">
         <v>0.7</v>
       </c>
-      <c r="AA20" s="27"/>
+      <c r="AA20" s="27">
+        <v>0.73</v>
+      </c>
       <c r="AB20" s="27"/>
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
@@ -2520,14 +2530,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2556,7 +2566,9 @@
       <c r="Z21" s="27">
         <v>0.6</v>
       </c>
-      <c r="AA21" s="27"/>
+      <c r="AA21" s="27">
+        <v>0.6</v>
+      </c>
       <c r="AB21" s="23"/>
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
@@ -2574,14 +2586,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2608,7 +2620,9 @@
       <c r="Z22" s="23">
         <v>0.65</v>
       </c>
-      <c r="AA22" s="27"/>
+      <c r="AA22" s="27">
+        <v>0.8</v>
+      </c>
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
@@ -2626,14 +2640,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2660,7 +2674,9 @@
       <c r="Z23" s="23">
         <v>0.65</v>
       </c>
-      <c r="AA23" s="27"/>
+      <c r="AA23" s="27">
+        <v>0.7</v>
+      </c>
       <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
@@ -2678,14 +2694,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2714,7 +2730,9 @@
       <c r="Z24" s="27">
         <v>0.85</v>
       </c>
-      <c r="AA24" s="23"/>
+      <c r="AA24" s="23">
+        <v>0.9</v>
+      </c>
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
@@ -2732,14 +2750,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2766,7 +2784,9 @@
       <c r="Z25" s="23">
         <v>0</v>
       </c>
-      <c r="AA25" s="27"/>
+      <c r="AA25" s="27">
+        <v>0</v>
+      </c>
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
@@ -2784,14 +2804,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2872,9 +2892,9 @@
         <f t="shared" si="1"/>
         <v>0.69100000000000006</v>
       </c>
-      <c r="AA26" s="23" t="e">
+      <c r="AA26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.754</v>
       </c>
       <c r="AB26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -2924,13 +2944,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2970,13 +2990,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39918,11 +39938,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39936,22 +39967,11 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9594411-7CDA-448F-B655-BFC81BCB681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA18734-3D8D-4F5B-97B1-9E4A6CA88B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,8 +926,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -935,40 +941,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,9 +962,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,11 +977,41 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="61">
+      <c r="B2" s="33">
         <v>2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="33">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="47" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="47" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="48">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="39">
         <v>44728</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="47" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="49">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="40">
         <v>44728</v>
       </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="49">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2256,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2295,7 +2295,9 @@
       <c r="AA16" s="23">
         <v>0.98</v>
       </c>
-      <c r="AB16" s="23"/>
+      <c r="AB16" s="23">
+        <v>0.98</v>
+      </c>
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
       <c r="AE16" s="29"/>
@@ -2312,14 +2314,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2349,7 +2351,9 @@
       <c r="AA17" s="23">
         <v>0.98</v>
       </c>
-      <c r="AB17" s="23"/>
+      <c r="AB17" s="23">
+        <v>0.98</v>
+      </c>
       <c r="AC17" s="23"/>
       <c r="AD17" s="23"/>
       <c r="AE17" s="29"/>
@@ -2366,14 +2370,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2403,7 +2407,9 @@
       <c r="AA18" s="27">
         <v>0.85</v>
       </c>
-      <c r="AB18" s="23"/>
+      <c r="AB18" s="27">
+        <v>0.85</v>
+      </c>
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
       <c r="AE18" s="29"/>
@@ -2420,14 +2426,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2459,7 +2465,9 @@
       <c r="AA19" s="23">
         <v>1</v>
       </c>
-      <c r="AB19" s="23"/>
+      <c r="AB19" s="23">
+        <v>1</v>
+      </c>
       <c r="AC19" s="23"/>
       <c r="AD19" s="23"/>
       <c r="AE19" s="29"/>
@@ -2476,14 +2484,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2513,7 +2521,9 @@
       <c r="AA20" s="27">
         <v>0.73</v>
       </c>
-      <c r="AB20" s="27"/>
+      <c r="AB20" s="27">
+        <v>0.77</v>
+      </c>
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="29"/>
@@ -2530,14 +2540,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2569,7 +2579,9 @@
       <c r="AA21" s="27">
         <v>0.6</v>
       </c>
-      <c r="AB21" s="23"/>
+      <c r="AB21" s="23">
+        <v>0.62</v>
+      </c>
       <c r="AC21" s="23"/>
       <c r="AD21" s="23"/>
       <c r="AE21" s="29"/>
@@ -2586,14 +2598,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2623,7 +2635,9 @@
       <c r="AA22" s="27">
         <v>0.8</v>
       </c>
-      <c r="AB22" s="27"/>
+      <c r="AB22" s="27">
+        <v>0.95</v>
+      </c>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="29"/>
@@ -2640,14 +2654,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2677,7 +2691,9 @@
       <c r="AA23" s="27">
         <v>0.7</v>
       </c>
-      <c r="AB23" s="27"/>
+      <c r="AB23" s="27">
+        <v>0.75</v>
+      </c>
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="29"/>
@@ -2694,14 +2710,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2733,7 +2749,9 @@
       <c r="AA24" s="23">
         <v>0.9</v>
       </c>
-      <c r="AB24" s="23"/>
+      <c r="AB24" s="23">
+        <v>1</v>
+      </c>
       <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="29"/>
@@ -2750,14 +2768,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2787,7 +2805,9 @@
       <c r="AA25" s="27">
         <v>0</v>
       </c>
-      <c r="AB25" s="27"/>
+      <c r="AB25" s="27">
+        <v>0.5</v>
+      </c>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="29"/>
@@ -2804,14 +2824,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2896,9 +2916,9 @@
         <f t="shared" si="1"/>
         <v>0.754</v>
       </c>
-      <c r="AB26" s="23" t="e">
+      <c r="AB26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="AC26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -2944,13 +2964,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2990,13 +3010,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39938,22 +39958,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39967,11 +39976,22 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA18734-3D8D-4F5B-97B1-9E4A6CA88B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082AAEEA-CF18-4BB0-BB9C-8384A8938569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="sample" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -926,14 +927,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,7 +936,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +990,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,41 +1008,11 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,18 +1417,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="33">
+      <c r="B2" s="61">
         <v>2022</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="61">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1502,58 +1503,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="39">
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="48">
         <v>44728</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="35" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="40">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="49">
         <v>44728</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="37"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1594,53 +1595,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="59">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="37"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1770,10 +1771,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1912,16 +1913,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1964,14 +1965,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2018,14 +2019,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2064,16 +2065,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2112,14 +2113,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2158,14 +2159,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2206,14 +2207,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2256,14 +2257,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2298,7 +2299,9 @@
       <c r="AB16" s="23">
         <v>0.98</v>
       </c>
-      <c r="AC16" s="23"/>
+      <c r="AC16" s="23">
+        <v>1</v>
+      </c>
       <c r="AD16" s="23"/>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
@@ -2314,14 +2317,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2354,7 +2357,9 @@
       <c r="AB17" s="23">
         <v>0.98</v>
       </c>
-      <c r="AC17" s="23"/>
+      <c r="AC17" s="23">
+        <v>1</v>
+      </c>
       <c r="AD17" s="23"/>
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
@@ -2370,14 +2375,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2410,7 +2415,9 @@
       <c r="AB18" s="27">
         <v>0.85</v>
       </c>
-      <c r="AC18" s="23"/>
+      <c r="AC18" s="23">
+        <v>1</v>
+      </c>
       <c r="AD18" s="23"/>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
@@ -2426,14 +2433,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2468,7 +2475,9 @@
       <c r="AB19" s="23">
         <v>1</v>
       </c>
-      <c r="AC19" s="23"/>
+      <c r="AC19" s="23">
+        <v>1</v>
+      </c>
       <c r="AD19" s="23"/>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
@@ -2484,14 +2493,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2524,7 +2533,9 @@
       <c r="AB20" s="27">
         <v>0.77</v>
       </c>
-      <c r="AC20" s="27"/>
+      <c r="AC20" s="27">
+        <v>1</v>
+      </c>
       <c r="AD20" s="27"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
@@ -2540,14 +2551,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2582,7 +2593,9 @@
       <c r="AB21" s="23">
         <v>0.62</v>
       </c>
-      <c r="AC21" s="23"/>
+      <c r="AC21" s="23">
+        <v>0.7</v>
+      </c>
       <c r="AD21" s="23"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
@@ -2598,14 +2611,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2638,7 +2651,9 @@
       <c r="AB22" s="27">
         <v>0.95</v>
       </c>
-      <c r="AC22" s="27"/>
+      <c r="AC22" s="27">
+        <v>0.95</v>
+      </c>
       <c r="AD22" s="27"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
@@ -2654,14 +2669,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2694,7 +2709,9 @@
       <c r="AB23" s="27">
         <v>0.75</v>
       </c>
-      <c r="AC23" s="27"/>
+      <c r="AC23" s="27">
+        <v>0.75</v>
+      </c>
       <c r="AD23" s="27"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
@@ -2710,14 +2727,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2752,7 +2769,9 @@
       <c r="AB24" s="23">
         <v>1</v>
       </c>
-      <c r="AC24" s="23"/>
+      <c r="AC24" s="23">
+        <v>1</v>
+      </c>
       <c r="AD24" s="23"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
@@ -2768,14 +2787,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2808,7 +2827,9 @@
       <c r="AB25" s="27">
         <v>0.5</v>
       </c>
-      <c r="AC25" s="27"/>
+      <c r="AC25" s="27">
+        <v>0.7</v>
+      </c>
       <c r="AD25" s="27"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
@@ -2824,14 +2845,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2920,9 +2941,9 @@
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AC26" s="23" t="e">
+      <c r="AC26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.90999999999999992</v>
       </c>
       <c r="AD26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -2964,13 +2985,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3010,13 +3031,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39958,11 +39979,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -39976,22 +40008,11 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082AAEEA-CF18-4BB0-BB9C-8384A8938569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550CC759-7B8C-4AC7-90A8-B45E88A3AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="sample" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -927,8 +926,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -936,40 +941,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -990,9 +962,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,11 +977,41 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1417,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="61">
+      <c r="B2" s="33">
         <v>2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="33">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1503,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="47" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="47" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="48">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="39">
         <v>44728</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="47" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="49">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="40">
         <v>44728</v>
       </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1595,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="49">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1771,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1913,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1965,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2019,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2065,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2113,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2159,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2207,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2257,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2302,7 +2301,9 @@
       <c r="AC16" s="23">
         <v>1</v>
       </c>
-      <c r="AD16" s="23"/>
+      <c r="AD16" s="23">
+        <v>1</v>
+      </c>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
       <c r="AG16" s="23"/>
@@ -2317,14 +2318,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2360,7 +2361,9 @@
       <c r="AC17" s="23">
         <v>1</v>
       </c>
-      <c r="AD17" s="23"/>
+      <c r="AD17" s="23">
+        <v>1</v>
+      </c>
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
       <c r="AG17" s="23"/>
@@ -2375,14 +2378,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2418,7 +2421,9 @@
       <c r="AC18" s="23">
         <v>1</v>
       </c>
-      <c r="AD18" s="23"/>
+      <c r="AD18" s="23">
+        <v>1</v>
+      </c>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
       <c r="AG18" s="23"/>
@@ -2433,14 +2438,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2478,7 +2483,9 @@
       <c r="AC19" s="23">
         <v>1</v>
       </c>
-      <c r="AD19" s="23"/>
+      <c r="AD19" s="23">
+        <v>1</v>
+      </c>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
       <c r="AG19" s="23"/>
@@ -2493,14 +2500,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2536,7 +2543,9 @@
       <c r="AC20" s="27">
         <v>1</v>
       </c>
-      <c r="AD20" s="27"/>
+      <c r="AD20" s="27">
+        <v>1</v>
+      </c>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
       <c r="AG20" s="23"/>
@@ -2551,14 +2560,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2596,7 +2605,9 @@
       <c r="AC21" s="23">
         <v>0.7</v>
       </c>
-      <c r="AD21" s="23"/>
+      <c r="AD21" s="23">
+        <v>0.8</v>
+      </c>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="23"/>
@@ -2611,14 +2622,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2654,7 +2665,9 @@
       <c r="AC22" s="27">
         <v>0.95</v>
       </c>
-      <c r="AD22" s="27"/>
+      <c r="AD22" s="27">
+        <v>0.95</v>
+      </c>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="23"/>
@@ -2669,14 +2682,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2712,7 +2725,9 @@
       <c r="AC23" s="27">
         <v>0.75</v>
       </c>
-      <c r="AD23" s="27"/>
+      <c r="AD23" s="27">
+        <v>0.77</v>
+      </c>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
       <c r="AG23" s="23"/>
@@ -2727,14 +2742,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2772,7 +2787,9 @@
       <c r="AC24" s="23">
         <v>1</v>
       </c>
-      <c r="AD24" s="23"/>
+      <c r="AD24" s="23">
+        <v>1</v>
+      </c>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="23"/>
@@ -2787,14 +2804,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2830,7 +2847,9 @@
       <c r="AC25" s="27">
         <v>0.7</v>
       </c>
-      <c r="AD25" s="27"/>
+      <c r="AD25" s="27">
+        <v>1</v>
+      </c>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
       <c r="AG25" s="23"/>
@@ -2845,14 +2864,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2945,9 +2964,9 @@
         <f t="shared" si="1"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="AD26" s="23" t="e">
+      <c r="AD26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="AE26" s="29" t="e">
         <f t="shared" si="1"/>
@@ -2985,13 +3004,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3031,13 +3050,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -39979,22 +39998,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -40008,11 +40016,22 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082AAEEA-CF18-4BB0-BB9C-8384A8938569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0098E8-33ED-43E6-AE2C-897FBCF06688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="15510" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>年</t>
   </si>
@@ -466,6 +465,10 @@
     <rPh sb="1" eb="3">
       <t>コウシ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>%</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -927,8 +930,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -936,40 +945,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -990,9 +966,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,11 +981,41 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB42419-DB5D-48B7-B59A-F0AA5FEBA60B}">
   <dimension ref="A1:AN999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1417,18 +1420,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="61">
+      <c r="B2" s="33">
         <v>2022</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="33">
         <v>6</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1503,58 +1506,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="47" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="47" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="48">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="39">
         <v>44728</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="47" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="49">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="40">
         <v>44728</v>
       </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1595,53 +1598,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="49">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1771,10 +1774,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1913,16 +1916,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1965,14 +1968,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2019,14 +2022,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2065,16 +2068,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2113,14 +2116,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2159,14 +2162,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2207,14 +2210,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2257,14 +2260,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2302,10 +2305,14 @@
       <c r="AC16" s="23">
         <v>1</v>
       </c>
-      <c r="AD16" s="23"/>
+      <c r="AD16" s="23">
+        <v>1</v>
+      </c>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
-      <c r="AG16" s="23"/>
+      <c r="AG16" s="23">
+        <v>1</v>
+      </c>
       <c r="AH16" s="23"/>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="23"/>
@@ -2317,14 +2324,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2360,10 +2367,14 @@
       <c r="AC17" s="23">
         <v>1</v>
       </c>
-      <c r="AD17" s="23"/>
+      <c r="AD17" s="23">
+        <v>1</v>
+      </c>
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
-      <c r="AG17" s="23"/>
+      <c r="AG17" s="23">
+        <v>1</v>
+      </c>
       <c r="AH17" s="23"/>
       <c r="AI17" s="23"/>
       <c r="AJ17" s="23"/>
@@ -2375,14 +2386,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2418,10 +2429,14 @@
       <c r="AC18" s="23">
         <v>1</v>
       </c>
-      <c r="AD18" s="23"/>
+      <c r="AD18" s="23">
+        <v>1</v>
+      </c>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
-      <c r="AG18" s="23"/>
+      <c r="AG18" s="23">
+        <v>1</v>
+      </c>
       <c r="AH18" s="23"/>
       <c r="AI18" s="23"/>
       <c r="AJ18" s="23"/>
@@ -2433,14 +2448,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2478,10 +2493,14 @@
       <c r="AC19" s="23">
         <v>1</v>
       </c>
-      <c r="AD19" s="23"/>
+      <c r="AD19" s="23">
+        <v>1</v>
+      </c>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
-      <c r="AG19" s="23"/>
+      <c r="AG19" s="23">
+        <v>1</v>
+      </c>
       <c r="AH19" s="23"/>
       <c r="AI19" s="23"/>
       <c r="AJ19" s="23"/>
@@ -2493,14 +2512,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2536,10 +2555,14 @@
       <c r="AC20" s="27">
         <v>1</v>
       </c>
-      <c r="AD20" s="27"/>
+      <c r="AD20" s="27">
+        <v>1</v>
+      </c>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
-      <c r="AG20" s="23"/>
+      <c r="AG20" s="23">
+        <v>1</v>
+      </c>
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
       <c r="AJ20" s="23"/>
@@ -2551,14 +2574,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2596,10 +2619,14 @@
       <c r="AC21" s="23">
         <v>0.7</v>
       </c>
-      <c r="AD21" s="23"/>
+      <c r="AD21" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
-      <c r="AG21" s="23"/>
+      <c r="AG21" s="23">
+        <v>1</v>
+      </c>
       <c r="AH21" s="23"/>
       <c r="AI21" s="23"/>
       <c r="AJ21" s="23"/>
@@ -2611,14 +2638,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2654,10 +2681,14 @@
       <c r="AC22" s="27">
         <v>0.95</v>
       </c>
-      <c r="AD22" s="27"/>
+      <c r="AD22" s="27">
+        <v>0.95</v>
+      </c>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
-      <c r="AG22" s="23"/>
+      <c r="AG22" s="23">
+        <v>0.95</v>
+      </c>
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
       <c r="AJ22" s="23"/>
@@ -2669,14 +2700,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2712,10 +2743,14 @@
       <c r="AC23" s="27">
         <v>0.75</v>
       </c>
-      <c r="AD23" s="27"/>
+      <c r="AD23" s="27">
+        <v>0.75</v>
+      </c>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
-      <c r="AG23" s="23"/>
+      <c r="AG23" s="23">
+        <v>0.75</v>
+      </c>
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
       <c r="AJ23" s="23"/>
@@ -2727,14 +2762,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2772,10 +2807,14 @@
       <c r="AC24" s="23">
         <v>1</v>
       </c>
-      <c r="AD24" s="23"/>
+      <c r="AD24" s="23">
+        <v>1</v>
+      </c>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
-      <c r="AG24" s="23"/>
+      <c r="AG24" s="23">
+        <v>1</v>
+      </c>
       <c r="AH24" s="23"/>
       <c r="AI24" s="23"/>
       <c r="AJ24" s="23"/>
@@ -2787,14 +2826,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2830,10 +2869,14 @@
       <c r="AC25" s="27">
         <v>0.7</v>
       </c>
-      <c r="AD25" s="27"/>
+      <c r="AD25" s="27">
+        <v>1</v>
+      </c>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
-      <c r="AG25" s="23"/>
+      <c r="AG25" s="23">
+        <v>1</v>
+      </c>
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
       <c r="AJ25" s="23"/>
@@ -2845,14 +2888,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2945,9 +2988,9 @@
         <f t="shared" si="1"/>
         <v>0.90999999999999992</v>
       </c>
-      <c r="AD26" s="23" t="e">
+      <c r="AD26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.96666666666666656</v>
       </c>
       <c r="AE26" s="29" t="e">
         <f t="shared" si="1"/>
@@ -2957,9 +3000,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="23" t="e">
+      <c r="AG26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.97</v>
       </c>
       <c r="AH26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -2985,13 +3028,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3018,7 +3061,9 @@
       <c r="AD27" s="18"/>
       <c r="AE27" s="30"/>
       <c r="AF27" s="30"/>
-      <c r="AG27" s="18"/>
+      <c r="AG27" s="23">
+        <v>0</v>
+      </c>
       <c r="AH27" s="18"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="20"/>
@@ -3031,13 +3076,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -3064,7 +3109,9 @@
       <c r="AD28" s="18"/>
       <c r="AE28" s="30"/>
       <c r="AF28" s="30"/>
-      <c r="AG28" s="18"/>
+      <c r="AG28" s="23">
+        <v>0.6</v>
+      </c>
       <c r="AH28" s="18"/>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="20"/>
@@ -39979,22 +40026,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -40008,11 +40044,22 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_C2.xlsx
+++ b/doc/工程表_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0098E8-33ED-43E6-AE2C-897FBCF06688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1A3918-A283-4B42-95CA-57CB4407BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="0" windowWidth="15510" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="15510" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>年</t>
   </si>
@@ -465,10 +465,6 @@
     <rPh sb="1" eb="3">
       <t>コウシ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>%</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -930,14 +926,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -945,7 +935,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,6 +989,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -981,41 +1007,11 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,7 +1361,7 @@
   <dimension ref="A1:AN999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27"/>
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1420,18 +1416,18 @@
       <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="33">
+      <c r="B2" s="61">
         <v>2022</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="61">
         <v>6</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1506,58 +1502,58 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="39">
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="48">
         <v>44728</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="35" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="40">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="49">
         <v>44728</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="37"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="14"/>
@@ -1598,53 +1594,53 @@
       <c r="AK5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="59">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="37"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1774,10 +1770,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1916,16 +1912,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24">
         <v>0.3</v>
@@ -1968,14 +1964,14 @@
       <c r="AN9" s="11"/>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2022,14 +2018,14 @@
       <c r="AN10" s="11"/>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -2068,16 +2064,16 @@
       <c r="AN11" s="11"/>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -2116,14 +2112,14 @@
       <c r="AN12" s="11"/>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -2162,14 +2158,14 @@
       <c r="AN13" s="11"/>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -2210,14 +2206,14 @@
       <c r="AN14" s="11"/>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -2260,14 +2256,14 @@
       <c r="AN15" s="11"/>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -2313,7 +2309,9 @@
       <c r="AG16" s="23">
         <v>1</v>
       </c>
-      <c r="AH16" s="23"/>
+      <c r="AH16" s="23">
+        <v>1</v>
+      </c>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="25"/>
@@ -2324,14 +2322,14 @@
       <c r="AN16" s="11"/>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2375,7 +2373,9 @@
       <c r="AG17" s="23">
         <v>1</v>
       </c>
-      <c r="AH17" s="23"/>
+      <c r="AH17" s="23">
+        <v>1</v>
+      </c>
       <c r="AI17" s="23"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="25"/>
@@ -2386,14 +2386,14 @@
       <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2437,7 +2437,9 @@
       <c r="AG18" s="23">
         <v>1</v>
       </c>
-      <c r="AH18" s="23"/>
+      <c r="AH18" s="23">
+        <v>1</v>
+      </c>
       <c r="AI18" s="23"/>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="25"/>
@@ -2448,14 +2450,14 @@
       <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -2501,7 +2503,9 @@
       <c r="AG19" s="23">
         <v>1</v>
       </c>
-      <c r="AH19" s="23"/>
+      <c r="AH19" s="23">
+        <v>1</v>
+      </c>
       <c r="AI19" s="23"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="25"/>
@@ -2512,14 +2516,14 @@
       <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -2563,7 +2567,9 @@
       <c r="AG20" s="23">
         <v>1</v>
       </c>
-      <c r="AH20" s="23"/>
+      <c r="AH20" s="23">
+        <v>1</v>
+      </c>
       <c r="AI20" s="23"/>
       <c r="AJ20" s="23"/>
       <c r="AK20" s="25"/>
@@ -2574,14 +2580,14 @@
       <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2619,15 +2625,17 @@
       <c r="AC21" s="23">
         <v>0.7</v>
       </c>
-      <c r="AD21" s="23" t="s">
-        <v>47</v>
+      <c r="AD21" s="23">
+        <v>0.72</v>
       </c>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="23">
         <v>1</v>
       </c>
-      <c r="AH21" s="23"/>
+      <c r="AH21" s="23">
+        <v>1</v>
+      </c>
       <c r="AI21" s="23"/>
       <c r="AJ21" s="23"/>
       <c r="AK21" s="25"/>
@@ -2638,14 +2646,14 @@
       <c r="AN21" s="11"/>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -2689,7 +2697,9 @@
       <c r="AG22" s="23">
         <v>0.95</v>
       </c>
-      <c r="AH22" s="23"/>
+      <c r="AH22" s="23">
+        <v>1</v>
+      </c>
       <c r="AI22" s="23"/>
       <c r="AJ22" s="23"/>
       <c r="AK22" s="25"/>
@@ -2700,14 +2710,14 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2762,14 +2772,14 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="32" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2815,7 +2825,9 @@
       <c r="AG24" s="23">
         <v>1</v>
       </c>
-      <c r="AH24" s="23"/>
+      <c r="AH24" s="23">
+        <v>1</v>
+      </c>
       <c r="AI24" s="23"/>
       <c r="AJ24" s="23"/>
       <c r="AK24" s="25"/>
@@ -2826,14 +2838,14 @@
       <c r="AN24" s="11"/>
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2877,7 +2889,9 @@
       <c r="AG25" s="23">
         <v>1</v>
       </c>
-      <c r="AH25" s="23"/>
+      <c r="AH25" s="23">
+        <v>1</v>
+      </c>
       <c r="AI25" s="23"/>
       <c r="AJ25" s="23"/>
       <c r="AK25" s="25"/>
@@ -2888,14 +2902,14 @@
       <c r="AN25" s="11"/>
     </row>
     <row r="26" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="23" t="e">
         <f>AVERAGE(P28G16:G25)</f>
         <v>#NAME?</v>
@@ -2990,7 +3004,7 @@
       </c>
       <c r="AD26" s="23">
         <f t="shared" si="1"/>
-        <v>0.96666666666666656</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="AE26" s="29" t="e">
         <f t="shared" si="1"/>
@@ -3004,9 +3018,9 @@
         <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
-      <c r="AH26" s="23" t="e">
+      <c r="AH26" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="23" t="e">
         <f t="shared" si="1"/>
@@ -3028,13 +3042,13 @@
       <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3076,13 +3090,13 @@
       <c r="A28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -40026,11 +40040,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="T4:W4"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B22:F22"/>
@@ -40044,22 +40069,11 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">
